--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGierszo\Desktop\billwerk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD59AE5-136D-465B-B850-620AD13BB6B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A2F2B65-B2C6-46C5-8B72-71A31D6DA901}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,9 +174,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Upload button is not disabled</t>
-  </si>
-  <si>
     <t>File is not selected when open file action is cancelled</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>File is correctly opened by the open file dialog. Correct name is displayed</t>
+  </si>
+  <si>
+    <t>Upload button is disabled</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>28</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -827,7 +827,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -869,7 +869,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -911,7 +911,7 @@
         <v>33</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -953,7 +953,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1025,7 +1025,7 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
@@ -1038,7 +1038,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1049,11 +1049,11 @@
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>15</v>
@@ -1062,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1077,7 +1077,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
